--- a/Loan Eligibility Data.xlsx
+++ b/Loan Eligibility Data.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\UIPath\Programs\Loan Eligibility Calculator\LoanEligibilityCalculator_GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\UIPath\Programs\Loan Eligibility Calculator\BankLoanEligibilityCalTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7485"/>
   </bookViews>
   <sheets>
-    <sheet name="HDFC" sheetId="3" r:id="rId1"/>
+    <sheet name="LoanTransfer" sheetId="4" r:id="rId1"/>
+    <sheet name="LoanEligibility" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Gross Income</t>
   </si>
@@ -42,13 +43,40 @@
   </si>
   <si>
     <t>Loan EMI</t>
+  </si>
+  <si>
+    <t>Principle Outstanding</t>
+  </si>
+  <si>
+    <t>Existing Tenure</t>
+  </si>
+  <si>
+    <t>Existing ROI</t>
+  </si>
+  <si>
+    <t>New Tenure</t>
+  </si>
+  <si>
+    <t>New ROI</t>
+  </si>
+  <si>
+    <t>Total Saving</t>
+  </si>
+  <si>
+    <t>Existing EMI</t>
+  </si>
+  <si>
+    <t>Proposed EMI</t>
+  </si>
+  <si>
+    <t>EMI Saving</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +89,13 @@
       <color rgb="FF184473"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,10 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +404,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1500000</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>8.5</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>231960</v>
+      </c>
+      <c r="G2">
+        <v>14771</v>
+      </c>
+      <c r="H2">
+        <v>13482</v>
+      </c>
+      <c r="I2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000000</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>9.5</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>6.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>364465</v>
+      </c>
+      <c r="G3">
+        <v>9898</v>
+      </c>
+      <c r="H3">
+        <v>8111</v>
+      </c>
+      <c r="I3">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1750000</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>167454</v>
+      </c>
+      <c r="G4">
+        <v>22168</v>
+      </c>
+      <c r="H4">
+        <v>20773</v>
+      </c>
+      <c r="I4">
+        <v>1395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,22 +583,56 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>150000</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>8.5</v>
+      </c>
+      <c r="E2">
+        <v>8377850</v>
+      </c>
+      <c r="F2" s="2">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100000</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2525100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>175000</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="4">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="4">
         <v>30000</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="4">
         <v>5460423</v>
       </c>
-      <c r="F2" s="2">
-        <v>66250</v>
+      <c r="F4" s="3">
+        <v>66251</v>
       </c>
     </row>
   </sheetData>
